--- a/data/trans_dic/P17G_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,37; 83,84</t>
+          <t>63,93; 84,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,1; 89,79</t>
+          <t>68,94; 90,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>67,77; 84,79</t>
+          <t>66,85; 84,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>67,01; 82,69</t>
+          <t>66,11; 82,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,11; 91,13</t>
+          <t>74,21; 91,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>69,06; 88,48</t>
+          <t>69,19; 88,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>73,65; 89,43</t>
+          <t>73,57; 89,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,83; 78,87</t>
+          <t>64,52; 78,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>72,22; 85,03</t>
+          <t>71,01; 85,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>72,92; 86,88</t>
+          <t>73,72; 87,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>72,85; 85,49</t>
+          <t>72,9; 84,82</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>68,17; 79,55</t>
+          <t>68,31; 79,12</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,12; 95,43</t>
+          <t>78,3; 95,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,71; 85,89</t>
+          <t>66,65; 85,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,33; 89,56</t>
+          <t>72,74; 89,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>71,58; 87,07</t>
+          <t>70,29; 86,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>80,68; 94,69</t>
+          <t>81,23; 94,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>79,14; 95,13</t>
+          <t>79,59; 95,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>81,86; 94,79</t>
+          <t>81,17; 94,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>70,32; 85,05</t>
+          <t>71,22; 85,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83,68; 93,75</t>
+          <t>83,01; 93,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>77,05; 88,64</t>
+          <t>76,41; 88,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>80,35; 90,59</t>
+          <t>80,32; 90,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>72,92; 83,95</t>
+          <t>73,27; 84,5</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,33; 95,14</t>
+          <t>84,38; 95,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94,93; 99,41</t>
+          <t>95,04; 99,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,06; 98,31</t>
+          <t>89,61; 98,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>92,8; 99,8</t>
+          <t>93,06; 99,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>82,3; 98,03</t>
+          <t>82,34; 97,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,63; 97,8</t>
+          <t>88,03; 97,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>86,43; 100,0</t>
+          <t>84,52; 98,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>82,84; 96,5</t>
+          <t>82,44; 96,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>86,11; 94,93</t>
+          <t>86,49; 94,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>93,84; 98,42</t>
+          <t>93,51; 98,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>90,82; 97,83</t>
+          <t>90,88; 97,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>91,17; 97,73</t>
+          <t>90,94; 97,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,59; 96,28</t>
+          <t>90,54; 96,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,93; 99,03</t>
+          <t>95,42; 99,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,37; 97,17</t>
+          <t>91,22; 97,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,05; 97,24</t>
+          <t>89,63; 97,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,59; 95,9</t>
+          <t>88,86; 95,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>97,53; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,92; 97,58</t>
+          <t>91,94; 97,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>90,9; 97,07</t>
+          <t>90,52; 96,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,76; 95,62</t>
+          <t>91,03; 95,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>96,98; 99,29</t>
+          <t>96,97; 99,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92,53; 96,65</t>
+          <t>92,66; 96,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,67; 96,48</t>
+          <t>91,99; 96,52</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>88,21; 97,94</t>
+          <t>88,9; 97,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>95,71; 100,0</t>
+          <t>95,76; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,11; 98,12</t>
+          <t>91,42; 98,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95,85; 100,0</t>
+          <t>94,28; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>93,83; 99,43</t>
+          <t>94,45; 99,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>97,63; 100,0</t>
+          <t>97,75; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,43; 97,94</t>
+          <t>92,44; 97,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>94,11; 98,68</t>
+          <t>94,27; 98,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>93,7; 98,41</t>
+          <t>93,94; 98,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>97,81; 99,76</t>
+          <t>97,8; 99,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>93,63; 97,65</t>
+          <t>93,73; 97,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>95,49; 98,71</t>
+          <t>95,24; 98,68</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1430,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>63,76; 94,47</t>
+          <t>67,38; 94,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>77,61; 95,8</t>
+          <t>77,29; 95,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,02; 100,0</t>
+          <t>36,76; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>93,19; 97,42</t>
+          <t>93,18; 97,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>94,31; 98,07</t>
+          <t>94,25; 98,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,47; 97,58</t>
+          <t>92,43; 97,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>88,93; 96,34</t>
+          <t>88,65; 96,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,18; 97,27</t>
+          <t>93,5; 97,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>92,43; 97,2</t>
+          <t>92,51; 97,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>91,63; 96,59</t>
+          <t>91,57; 96,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>86,44; 95,76</t>
+          <t>86,65; 95,83</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>87,94; 92,71</t>
+          <t>88,13; 92,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,02; 94,98</t>
+          <t>91,43; 95,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>88,97; 93,21</t>
+          <t>89,0; 93,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>86,42; 91,81</t>
+          <t>86,28; 91,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,06; 95,19</t>
+          <t>92,25; 95,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,58; 97,09</t>
+          <t>94,54; 97,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,31; 95,13</t>
+          <t>92,04; 95,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>88,41; 92,89</t>
+          <t>88,4; 92,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91,27; 93,84</t>
+          <t>91,12; 93,8</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>93,63; 95,82</t>
+          <t>93,68; 95,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>91,41; 93,8</t>
+          <t>91,61; 94,01</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,05; 91,58</t>
+          <t>88,4; 91,63</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha acudido a un médico de la seguridad social en su última visita</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>59173</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>62025</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>78783</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>91131</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>63012</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>63040</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>78513</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>77723</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>122184</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>125065</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>157298</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>168854</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>50681; 66719</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>52221; 68319</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>68538; 86438</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>79518; 99708</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>55656; 68256</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>54494; 69661</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>69869; 85161</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>69293; 84793</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>109538; 132055</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>113898; 134704</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>143979; 167506</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>155542; 180145</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>55710</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>73962</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>76676</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>72281</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>87646</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>81596</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>83656</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>71305</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>143356</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>155558</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>160332</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>143586</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>48945; 59588</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>63380; 81444</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>67408; 82903</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>63932; 79047</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>79942; 93134</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>72509; 87415</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>75910; 88406</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>64430; 76920</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>133582; 150258</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>142269; 164994</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>149546; 168090</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>132927; 153310</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>106455</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>151024</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>145657</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>84503</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>54849</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>86013</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>57395</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>43390</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>161304</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>237037</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>203052</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>127893</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>99004; 111781</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>146261; 152999</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>137053; 149964</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>80474; 86302</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>48777; 57856</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>80186; 89113</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>51213; 59661</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>39387; 45929</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>152714; 167478</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>229085; 241093</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>194070; 208380</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>122088; 130923</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>269717</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>288421</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>273839</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>205140</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>206984</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>245362</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>252804</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>179798</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>476701</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>533783</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>526643</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>384937</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>260352; 277107</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>282029; 292722</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>263675; 280457</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>194779; 211116</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>197689; 213069</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>241149; 247265</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>243843; 258456</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>172328; 184617</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>464260; 487348</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>526399; 538944</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>513615; 536059</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>375043; 393508</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>76759</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>107275</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>156560</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>88092</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>194572</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>272994</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>251208</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>259698</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>271331</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>380270</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>407767</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>347791</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>72156; 79494</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>103601; 108191</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>148945; 159812</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>83911; 89006</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>188272; 198265</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>268916; 275099</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>242418; 256606</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>253281; 265271</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>263514; 276111</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>374853; 382371</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>398494; 415124</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>340657; 352954</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>24213</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>31456</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>38900</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>20011</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>376219</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>340111</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>344672</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>161061</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>400432</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>371567</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>383572</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>181072</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>20602; 25061</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>25211; 35508</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>33769; 41931</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>8562; 23289</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>367061; 383653</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>331895; 345334</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>334465; 352591</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>152836; 166250</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>391738; 407895</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>360407; 378636</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>371393; 391846</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>169554; 187519</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1556</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1672</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1726</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1824</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>592026</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>714164</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>770415</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>561158</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>983282</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1089116</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1068250</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>792974</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1575308</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1803279</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1838664</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1354133</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>575360; 605644</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>700239; 727891</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>751017; 785293</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>541288; 575072</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>967160; 998057</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1073506; 1102051</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1047776; 1082789</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>775329; 815627</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1550242; 1595722</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1781272; 1821164</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1815940; 1863477</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1329839; 1378497</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P17G_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
